--- a/Misc/roster.xlsx
+++ b/Misc/roster.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="99">
   <si>
     <t>Class</t>
   </si>
@@ -167,9 +167,6 @@
     <t>Jord</t>
   </si>
   <si>
-    <t>48 units</t>
-  </si>
-  <si>
     <t>Ogmios</t>
   </si>
   <si>
@@ -203,9 +200,6 @@
     <t>Sierra</t>
   </si>
   <si>
-    <t>Kojo</t>
-  </si>
-  <si>
     <t>Vanja</t>
   </si>
   <si>
@@ -219,6 +213,114 @@
   </si>
   <si>
     <t>Fatima</t>
+  </si>
+  <si>
+    <t>Hakim</t>
+  </si>
+  <si>
+    <t>Blumari</t>
+  </si>
+  <si>
+    <t>Woadlan</t>
+  </si>
+  <si>
+    <t>Wystan</t>
+  </si>
+  <si>
+    <t>Southsea</t>
+  </si>
+  <si>
+    <t>Silverbay</t>
+  </si>
+  <si>
+    <t>Animagik</t>
+  </si>
+  <si>
+    <t>F.Sage</t>
+  </si>
+  <si>
+    <t>Gofaul</t>
+  </si>
+  <si>
+    <t>Hawkport</t>
+  </si>
+  <si>
+    <t>Umbralburg</t>
+  </si>
+  <si>
+    <t>Wilderlans</t>
+  </si>
+  <si>
+    <t>Barstayne</t>
+  </si>
+  <si>
+    <t>Eponlia</t>
+  </si>
+  <si>
+    <t>W.Viripuria</t>
+  </si>
+  <si>
+    <t>E.Viripuria</t>
+  </si>
+  <si>
+    <t>Wyvember</t>
+  </si>
+  <si>
+    <t>Blakpeak</t>
+  </si>
+  <si>
+    <t>Warrior</t>
+  </si>
+  <si>
+    <t>Berserker</t>
+  </si>
+  <si>
+    <t>Rogue</t>
+  </si>
+  <si>
+    <t>NilsBard</t>
+  </si>
+  <si>
+    <t>Ryderstan</t>
+  </si>
+  <si>
+    <t>Frontina</t>
+  </si>
+  <si>
+    <t>Marqlans</t>
+  </si>
+  <si>
+    <t>Shyne</t>
+  </si>
+  <si>
+    <t>Majestica</t>
+  </si>
+  <si>
+    <t>Shivair</t>
+  </si>
+  <si>
+    <t>Jagenstan</t>
+  </si>
+  <si>
+    <t>Navarstan</t>
+  </si>
+  <si>
+    <t>Cinderbad</t>
+  </si>
+  <si>
+    <t>Plenti</t>
+  </si>
+  <si>
+    <t>Goldburhz</t>
+  </si>
+  <si>
+    <t>Halberdier</t>
+  </si>
+  <si>
+    <t>Acolyte</t>
+  </si>
+  <si>
+    <t>Dancer</t>
   </si>
 </sst>
 </file>
@@ -242,7 +344,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,6 +366,90 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6CDFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -303,9 +489,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -320,6 +503,54 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -329,7 +560,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE6CDFF"/>
+      <color rgb="FFCC99FF"/>
       <color rgb="FFFFCCCC"/>
+      <color rgb="FFFF9999"/>
     </mruColors>
   </colors>
   <extLst>
@@ -606,274 +840,656 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="13.140625" style="1" customWidth="1"/>
+    <col min="6" max="12" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="F2" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="9"/>
+      <c r="G3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>54</v>
+      <c r="C4" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="9"/>
+      <c r="G4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>55</v>
+      <c r="C5" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="9"/>
+      <c r="G5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="9"/>
+      <c r="G7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="F9" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="9"/>
+      <c r="G10" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="9"/>
+      <c r="G11" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="9"/>
+      <c r="G12" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>56</v>
+      <c r="B13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="9"/>
+      <c r="G13" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>49</v>
+      <c r="B15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>62</v>
+      <c r="C17" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" s="9"/>
+      <c r="G17" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>50</v>
+      <c r="C19" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" s="9"/>
+      <c r="G19" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" s="9"/>
+      <c r="G20" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F22" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F23" s="9"/>
+      <c r="G23" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F24" s="9"/>
+      <c r="G24" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F25" s="9"/>
+      <c r="G25" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F26" s="9"/>
+      <c r="G26" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F28" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F29" s="9"/>
+      <c r="G29" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F30" s="9"/>
+      <c r="G30" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F31" s="9"/>
+      <c r="G31" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F32" s="9"/>
+      <c r="G32" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
